--- a/static/users.xlsx
+++ b/static/users.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,24 +448,36 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>atharva</t>
+          <t>add</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ath</t>
+          <t>add</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>add</t>
+          <t>atharva</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>add</t>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>avenger</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>123</t>
         </is>
       </c>
     </row>

--- a/static/users.xlsx
+++ b/static/users.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +481,18 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ASUS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
